--- a/202503月打卡（03.17-03.23) .xlsx
+++ b/202503月打卡（03.17-03.23) .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,90 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>3月17日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3月17日打卡内容</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3月18日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>3月18日打卡内容</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3月19日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3月19日打卡内容</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3月20日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3月20日打卡内容</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3月21日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>3月21日打卡内容</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>3月22日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>3月22日打卡内容</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3月23日打卡分钟数</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3月23日打卡内容</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>总时长（分钟）</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>总时长（小时）</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>总天数</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>本周排名（总时长）</t>
         </is>
@@ -475,15 +545,59 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Hanon1-20</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>360</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>回课作业。</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>300</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>双手琵音跑动， Hanon 11-20, Beyer 80-82, 599 42-46, Burgmuller #4&amp;7。今日回课</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>1110</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
         <v>18.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="S2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -497,15 +611,59 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>270</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D960，激流。</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>300</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D960，激流。练琴+回课。</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>240</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D960，激流，一些视奏。</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>120</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>D960，激流。</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>930</v>
       </c>
-      <c r="D3" t="n">
+      <c r="R3" t="n">
         <v>15.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -519,15 +677,59 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>215</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>同前，m7</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>210</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>同前，m7</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>240</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>同前，m7</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>260</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>同前，m8</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
         <v>925</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
         <v>15.42</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="T4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -541,15 +743,59 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>练习曲，乐曲</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>练习曲，乐曲</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>240</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>练习曲，乐曲</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>270</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>练习曲，乐曲</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>780</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
         <v>13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="S5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="T5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -563,15 +809,47 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>600</v>
       </c>
-      <c r="D6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>可爱的家</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>600</v>
+      </c>
+      <c r="R6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
+      <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -585,15 +863,43 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>195</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>120</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>145</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>120</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
         <v>580</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
         <v>9.67</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -607,15 +913,51 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>360</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>梦幻曲。今天和补昨天</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>180</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>雨伞 梦幻曲 op69。10:30-20:30</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
         <v>540</v>
       </c>
-      <c r="D8" t="n">
+      <c r="R8" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -629,15 +971,55 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>150</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>180</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>180</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
         <v>510</v>
       </c>
-      <c r="D9" t="n">
+      <c r="R9" t="n">
         <v>8.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -651,15 +1033,59 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>150</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>同前，599录的快吐了😭</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>120</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>120</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>同前，时间太少了作业根本做不完</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>被拜厄73整破防了，准备再练一周……</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
         <v>510</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>8.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -673,15 +1099,59 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>180</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>回课，新学599第24条，你离开的真相。 双音好难，两个手指头同时落键但总感觉声音是分开的。</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>90</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>the truth that you leave。</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>120</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>同前。</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>the truth that you leave。猝不及防的被同学报了这周六的5k run，下班练完琴跑了个2迈多，还抽空拍倆视频给老师纠错，被老师评价弹的软绵绵。</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
         <v>480</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -695,15 +1165,51 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>240</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>肖邦三度＋船歌＋贝多芬奏鸣曲13三四乐章</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>贝多芬奏鸣曲13第四乐章＋三度</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
         <v>440</v>
       </c>
-      <c r="D12" t="n">
+      <c r="R12" t="n">
         <v>7.33</v>
       </c>
-      <c r="E12" t="n">
+      <c r="S12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
+      <c r="T12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -717,15 +1223,55 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>140</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>130</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>140</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
         <v>410</v>
       </c>
-      <c r="D13" t="n">
+      <c r="R13" t="n">
         <v>6.83</v>
       </c>
-      <c r="E13" t="n">
+      <c r="S13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="T13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -739,15 +1285,59 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>120</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>复习+上课</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>90</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>复习+上课</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>同前+上课</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
         <v>370</v>
       </c>
-      <c r="D14" t="n">
+      <c r="R14" t="n">
         <v>6.17</v>
       </c>
-      <c r="E14" t="n">
+      <c r="S14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -761,15 +1351,59 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>tango callejero，贝多芬op2no1，二部创意曲一首。</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tango callejero，二部创意曲。</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>tango callejero，bwv778。</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>90</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>tango callejero，贝多芬op2no1.1。今天回课，老师的琴弹起来太舒服了！</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
         <v>330</v>
       </c>
-      <c r="D15" t="n">
+      <c r="R15" t="n">
         <v>5.5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="S15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>14</v>
       </c>
     </row>
@@ -783,15 +1417,59 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>120</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>回课</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
         <v>310</v>
       </c>
-      <c r="D16" t="n">
+      <c r="R16" t="n">
         <v>5.17</v>
       </c>
-      <c r="E16" t="n">
+      <c r="S16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="T16" t="n">
         <v>15</v>
       </c>
     </row>
@@ -805,15 +1483,51 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>120</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>车尔尼 13 14 15。拜厄 白月光与朱砂痣。</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>120</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>车尔尼 白月光 拜厄。</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
         <v>240</v>
       </c>
-      <c r="D17" t="n">
+      <c r="R17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="S17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
+      <c r="T17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -827,15 +1541,47 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>240</v>
       </c>
-      <c r="D18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Vissi darte,alma grande</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>240</v>
+      </c>
+      <c r="R18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
+      <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
+      <c r="T18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -849,15 +1595,51 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>即兴伴奏练习。</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>拜厄81-82，今日回课。</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
         <v>200</v>
       </c>
-      <c r="D19" t="n">
+      <c r="R19" t="n">
         <v>3.33</v>
       </c>
-      <c r="E19" t="n">
+      <c r="S19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="T19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -871,15 +1653,59 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>哈农15《849-30》无词歌。哈农15条弹到88，849第30条108实在弹不上去了，849就此结束！！！无词歌好几天没弹都不会了，得复习…</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>哈农14无词歌全曲。哈农14条弹到92，无词歌跟节拍器慢速，第三页第四页还是不熟，尤其是结尾部分ORZ</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>哈农15，849复习1-5，无词歌细节。哈农15条弹到96，849算是全书弹完了，慢速复习，无词歌扣第三页第四页细节，今天收到了亨乐贝奏，开心！！</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>《299-1》乱七八糟曲子。终于弹299了好耶！！！明天周五好耶！！！</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
         <v>190</v>
       </c>
-      <c r="D20" t="n">
+      <c r="R20" t="n">
         <v>3.17</v>
       </c>
-      <c r="E20" t="n">
+      <c r="S20" t="n">
         <v>4</v>
       </c>
-      <c r="F20" t="n">
+      <c r="T20" t="n">
         <v>19</v>
       </c>
     </row>
@@ -893,15 +1719,59 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>拜厄89.90.94，乐曲。交作业啦</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>拜厄89.90。不熟练的小节重点练习</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>哈农、拜厄89</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>哈农</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
         <v>190</v>
       </c>
-      <c r="D21" t="n">
+      <c r="R21" t="n">
         <v>3.17</v>
       </c>
-      <c r="E21" t="n">
+      <c r="S21" t="n">
         <v>4</v>
       </c>
-      <c r="F21" t="n">
+      <c r="T21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -915,15 +1785,55 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>60</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>599-46，巴赫初级4。</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>《599-45，46》，巴赫初级4。</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>60</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>同前。</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
         <v>180</v>
       </c>
-      <c r="D22" t="n">
+      <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
+      <c r="S22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="n">
+      <c r="T22" t="n">
         <v>21</v>
       </c>
     </row>
@@ -937,15 +1847,47 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>180</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>599第58-64条。昨天1小时今天2小时。</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>180</v>
+      </c>
+      <c r="R23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="S23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="T23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -959,15 +1901,51 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>同前加G大调音阶寻找老师说的放下来的感觉，明天继续努力。</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>90</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>同前。多瑙河加踏板练习。</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
         <v>180</v>
       </c>
-      <c r="D24" t="n">
+      <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="S24" t="n">
         <v>2</v>
       </c>
-      <c r="F24" t="n">
+      <c r="T24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -981,15 +1959,55 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A大调幻想曲，《718》-2，松雪草。</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>60</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>同前。</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>60</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>视唱练耳练习，和弦连接练习，练习曲。</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
         <v>180</v>
       </c>
-      <c r="D25" t="n">
+      <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="S25" t="n">
         <v>3</v>
       </c>
-      <c r="F25" t="n">
+      <c r="T25" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1003,15 +2021,55 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>60</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>复习599，大汤1，小汤3</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>复习599和小汤3</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>复习599，大汤1，小汤3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
         <v>170</v>
       </c>
-      <c r="D26" t="n">
+      <c r="R26" t="n">
         <v>2.83</v>
       </c>
-      <c r="E26" t="n">
+      <c r="S26" t="n">
         <v>3</v>
       </c>
-      <c r="F26" t="n">
+      <c r="T26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1025,15 +2083,55 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>哈农，849.1，啊我的太阳，布格缪勒叙事曲，老曲子6首。</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>哈农，849.1，布格缪勒叙事曲，啊我的太阳，老曲子6首。</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>60</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>哈农，849.1，布格缪勒叙事曲，啊我的太阳，老曲子6首。</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
         <v>160</v>
       </c>
-      <c r="D27" t="n">
+      <c r="R27" t="n">
         <v>2.67</v>
       </c>
-      <c r="E27" t="n">
+      <c r="S27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
+      <c r="T27" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1047,15 +2145,51 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>70</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>90</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>同前，复习幻想即兴曲。</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
         <v>160</v>
       </c>
-      <c r="D28" t="n">
+      <c r="R28" t="n">
         <v>2.67</v>
       </c>
-      <c r="E28" t="n">
+      <c r="S28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="n">
+      <c r="T28" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1069,15 +2203,51 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>599继续练习。11:10-12:03</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>599练习，还复习了a小调圆舞曲。11:30-13:13</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
         <v>150</v>
       </c>
-      <c r="D29" t="n">
+      <c r="R29" t="n">
         <v>2.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="S29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="n">
+      <c r="T29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1091,15 +2261,55 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>56</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>小汤3P4-7，哈农第1条</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>75</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>小汤3P4-7，今天太累了</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
         <v>146</v>
       </c>
-      <c r="D30" t="n">
+      <c r="R30" t="n">
         <v>2.43</v>
       </c>
-      <c r="E30" t="n">
+      <c r="S30" t="n">
         <v>3</v>
       </c>
-      <c r="F30" t="n">
+      <c r="T30" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1113,15 +2323,51 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>90</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>补昨天90分钟，拜厄60，菲伯尔2首曲子开谱</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
         <v>120</v>
       </c>
-      <c r="D31" t="n">
+      <c r="R31" t="n">
         <v>2</v>
       </c>
-      <c r="E31" t="n">
+      <c r="S31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="n">
+      <c r="T31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1135,15 +2381,51 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>60</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>299 35</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>299 35</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
         <v>120</v>
       </c>
-      <c r="D32" t="n">
+      <c r="R32" t="n">
         <v>2</v>
       </c>
-      <c r="E32" t="n">
+      <c r="S32" t="n">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="T32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1157,15 +2439,47 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
         <v>120</v>
       </c>
-      <c r="D33" t="n">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>小情歌</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>120</v>
+      </c>
+      <c r="R33" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
+      <c r="S33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
+      <c r="T33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1179,15 +2493,51 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>55</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>哈农25-27，小奏鸣曲</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>60</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>同前。今天没开小差！</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
         <v>115</v>
       </c>
-      <c r="D34" t="n">
+      <c r="R34" t="n">
         <v>1.92</v>
       </c>
-      <c r="E34" t="n">
+      <c r="S34" t="n">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="T34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1201,15 +2551,51 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>55</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>基本功，哈农第8条，拜厄72条，《金丝雀》</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>40</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>视奏p52，哈农第8条，拜耳72</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
         <v>95</v>
       </c>
-      <c r="D35" t="n">
+      <c r="R35" t="n">
         <v>1.58</v>
       </c>
-      <c r="E35" t="n">
+      <c r="S35" t="n">
         <v>2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="T35" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1223,15 +2609,51 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>60</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>回课，夜曲</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>夜曲</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
         <v>90</v>
       </c>
-      <c r="D36" t="n">
+      <c r="R36" t="n">
         <v>1.5</v>
       </c>
-      <c r="E36" t="n">
+      <c r="S36" t="n">
         <v>2</v>
       </c>
-      <c r="F36" t="n">
+      <c r="T36" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1245,15 +2667,51 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>45</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>哆嗦哆咪嗦</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>45</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
         <v>90</v>
       </c>
-      <c r="D37" t="n">
+      <c r="R37" t="n">
         <v>1.5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="S37" t="n">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
+      <c r="T37" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1267,15 +2725,51 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>60</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>いつも何度でも</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>拜厄2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
         <v>90</v>
       </c>
-      <c r="D38" t="n">
+      <c r="R38" t="n">
         <v>1.5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="S38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="T38" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1289,15 +2783,47 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>70</v>
       </c>
-      <c r="D39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>音阶+《299》10条1-8小节100。10:15-11:25</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>70</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.17</v>
       </c>
-      <c r="E39" t="n">
+      <c r="S39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
+      <c r="T39" t="n">
         <v>38</v>
       </c>
     </row>
@@ -1311,15 +2837,47 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
         <v>45</v>
       </c>
-      <c r="D40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>45</v>
+      </c>
+      <c r="R40" t="n">
         <v>0.75</v>
       </c>
-      <c r="E40" t="n">
+      <c r="S40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
+      <c r="T40" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1333,15 +2891,47 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
         <v>40</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>拜厄97条双音练习+96条熟练+春日华尔兹扣细节</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>40</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.67</v>
       </c>
-      <c r="E41" t="n">
+      <c r="S41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
+      <c r="T41" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1355,15 +2945,47 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
         <v>40</v>
       </c>
-      <c r="D42" t="n">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>布格缪勒燕子。补昨天20分钟。</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>40</v>
+      </c>
+      <c r="R42" t="n">
         <v>0.67</v>
       </c>
-      <c r="E42" t="n">
+      <c r="S42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="T42" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1377,15 +2999,47 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>30</v>
       </c>
-      <c r="D43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>599 13条。</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>30</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="S43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
+      <c r="T43" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1399,15 +3053,43 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
         <v>30</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>30</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="S44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
+      <c r="T44" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1421,15 +3103,47 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>30</v>
       </c>
-      <c r="D45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>同上</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>30</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.5</v>
       </c>
-      <c r="E45" t="n">
+      <c r="S45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
+      <c r="T45" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1445,13 +3159,45 @@
       <c r="C46" t="n">
         <v>30</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>圆舞曲/生病的洋娃娃</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>30</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.5</v>
       </c>
-      <c r="E46" t="n">
+      <c r="S46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
+      <c r="T46" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1467,13 +3213,45 @@
       <c r="C47" t="n">
         <v>10</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>同前</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.17</v>
       </c>
-      <c r="E47" t="n">
+      <c r="S47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
+      <c r="T47" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1489,13 +3267,41 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1511,13 +3317,41 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1533,13 +3367,41 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1555,13 +3417,41 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1577,13 +3467,41 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1599,13 +3517,41 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1621,13 +3567,41 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1643,13 +3617,41 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1665,13 +3667,41 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1687,13 +3717,41 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>0</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1709,13 +3767,41 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1731,13 +3817,41 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1753,13 +3867,41 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1775,13 +3917,41 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1797,13 +3967,41 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
         <v>61</v>
       </c>
     </row>
@@ -1819,13 +4017,41 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1841,13 +4067,41 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
         <v>63</v>
       </c>
     </row>
@@ -1863,13 +4117,41 @@
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>0</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
         <v>64</v>
       </c>
     </row>
@@ -1885,13 +4167,41 @@
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>0</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
         <v>65</v>
       </c>
     </row>
